--- a/medicine/Enfance/Lida_Durdikova/Lida_Durdikova.xlsx
+++ b/medicine/Enfance/Lida_Durdikova/Lida_Durdikova.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ludmila Durdiková (née à Prague le 1er avril 1899 et décédée à Paris 5e le 8 mars 1955[1]) est une femme de lettres tchèque.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ludmila Durdiková (née à Prague le 1er avril 1899 et décédée à Paris 5e le 8 mars 1955) est une femme de lettres tchèque.
 Elle a été la collaboratrice de l'éducateur tchécoslovaque František Bakule.
 Sous le pseudonyme de Lida, elle a signé de nombreux albums, notamment dans la collection du Père Castor (Flammarion), qu'elle a créé avec son mari Paul Faucher.
-Elle est aussi l'auteur des Enfants aux yeux éteints, inspiré de son expérience avec un groupe d'enfants non-voyants à la montagne[2], et du livre Les Vagabonds, journal dans lequel elle raconte son voyage à travers la Tchécoslovaquie, accompagnée de quelques enfants de l'institut Bakule… et d'un théâtre de marionnettes.
+Elle est aussi l'auteur des Enfants aux yeux éteints, inspiré de son expérience avec un groupe d'enfants non-voyants à la montagne, et du livre Les Vagabonds, journal dans lequel elle raconte son voyage à travers la Tchécoslovaquie, accompagnée de quelques enfants de l'institut Bakule… et d'un théâtre de marionnettes.
 </t>
         </is>
       </c>
@@ -516,8 +528,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Albums
-Les textes sont illustrés sauf mention contraire par Fiodor Rojankovski, alias Rojan
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les textes sont illustrés sauf mention contraire par Fiodor Rojankovski, alias Rojan
 La Ferme du Père Castor (1934, ill. Hélène Guertik)
 Panache l'Écureuil (1934)
 Froux le Lièvre (1935)
@@ -531,9 +548,43 @@
 Les Animaux du zoo (1941)
 Le Bouquet du jardinier (1941, ill. Angèle Malclès)
 Poulerousse (1949, ill. Romain Simon
-La grande nuit d'été (1957, ill. Romain Simon)
-Récits
-Durdikova, Lida, 1899-1955., Les enfants aux yeux éteints, Castor poche/Flammarion, 1984 (ISBN 2-08-161802-8 et 978-2-08-161802-2, OCLC 299446839, lire en ligne)</t>
+La grande nuit d'été (1957, ill. Romain Simon)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lida_Durdikova</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lida_Durdikova</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Récits</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Durdikova, Lida, 1899-1955., Les enfants aux yeux éteints, Castor poche/Flammarion, 1984 (ISBN 2-08-161802-8 et 978-2-08-161802-2, OCLC 299446839, lire en ligne)</t>
         </is>
       </c>
     </row>
